--- a/storage/app/utils/Products.xlsx
+++ b/storage/app/utils/Products.xlsx
@@ -8,14 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Academia San Fernando\storage\app\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBB2622-152D-4E10-B812-5D928C60E9E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A6D234-1921-41B9-9FB4-570D0CFAD274}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1471,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F46E4A5-8C04-4CB3-B615-83ED9B94ADA8}">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="56.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2155,6 +2163,10 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <f>A19+1</f>
+        <v>19</v>
+      </c>
       <c r="B20" s="10">
         <v>1</v>
       </c>
@@ -2184,6 +2196,10 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <f t="shared" ref="A21:A70" si="0">A20+1</f>
+        <v>20</v>
+      </c>
       <c r="B21" s="10">
         <v>1</v>
       </c>
@@ -2213,6 +2229,10 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
       <c r="B22" s="10">
         <v>1</v>
       </c>
@@ -2242,6 +2262,10 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
       <c r="B23" s="10">
         <v>1</v>
       </c>
@@ -2271,6 +2295,10 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
       <c r="B24" s="10">
         <v>1</v>
       </c>
@@ -2300,6 +2328,10 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
       <c r="B25" s="10">
         <v>1</v>
       </c>
@@ -2329,6 +2361,10 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
       <c r="B26" s="10">
         <v>1</v>
       </c>
@@ -2358,6 +2394,10 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
       <c r="B27" s="10">
         <v>1</v>
       </c>
@@ -2387,6 +2427,10 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
       <c r="B28" s="10">
         <v>1</v>
       </c>
@@ -2416,6 +2460,10 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
       <c r="B29" s="10">
         <v>1</v>
       </c>
@@ -2445,6 +2493,10 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
       <c r="B30" s="10">
         <v>1</v>
       </c>
@@ -2474,6 +2526,10 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="B31" s="10">
         <v>1</v>
       </c>
@@ -2503,6 +2559,10 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
       <c r="B32" s="10">
         <v>1</v>
       </c>
@@ -2531,7 +2591,11 @@
         <v>294</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
       <c r="B33" s="10">
         <v>1</v>
       </c>
@@ -2560,7 +2624,11 @@
         <v>295</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
       <c r="B34" s="10">
         <v>1</v>
       </c>
@@ -2589,7 +2657,11 @@
         <v>296</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
       <c r="B35" s="10">
         <v>1</v>
       </c>
@@ -2618,7 +2690,11 @@
         <v>297</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
       <c r="B36" s="10">
         <v>1</v>
       </c>
@@ -2647,7 +2723,11 @@
         <v>298</v>
       </c>
     </row>
-    <row r="37" spans="2:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
       <c r="B37" s="10">
         <v>1</v>
       </c>
@@ -2676,7 +2756,11 @@
         <v>269</v>
       </c>
     </row>
-    <row r="38" spans="2:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
       <c r="B38" s="10">
         <v>1</v>
       </c>
@@ -2705,7 +2789,11 @@
         <v>299</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
       <c r="B39" s="10">
         <v>1</v>
       </c>
@@ -2734,7 +2822,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
       <c r="B40" s="10">
         <v>1</v>
       </c>
@@ -2763,7 +2855,11 @@
         <v>301</v>
       </c>
     </row>
-    <row r="41" spans="2:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="B41" s="14">
         <v>2</v>
       </c>
@@ -2792,7 +2888,11 @@
         <v>302</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
       <c r="B42" s="14">
         <v>2</v>
       </c>
@@ -2821,7 +2921,11 @@
         <v>303</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
       <c r="B43" s="14">
         <v>2</v>
       </c>
@@ -2850,7 +2954,11 @@
         <v>304</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
       <c r="B44" s="14">
         <v>2</v>
       </c>
@@ -2879,7 +2987,11 @@
         <v>305</v>
       </c>
     </row>
-    <row r="45" spans="2:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
       <c r="B45" s="14">
         <v>2</v>
       </c>
@@ -2908,7 +3020,11 @@
         <v>306</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
       <c r="B46" s="14">
         <v>2</v>
       </c>
@@ -2937,7 +3053,11 @@
         <v>307</v>
       </c>
     </row>
-    <row r="47" spans="2:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
       <c r="B47" s="14">
         <v>2</v>
       </c>
@@ -2966,7 +3086,11 @@
         <v>308</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
       <c r="B48" s="14">
         <v>2</v>
       </c>
@@ -2995,7 +3119,11 @@
         <v>309</v>
       </c>
     </row>
-    <row r="49" spans="2:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
       <c r="B49" s="14">
         <v>2</v>
       </c>
@@ -3024,7 +3152,11 @@
         <v>310</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
       <c r="B50" s="14">
         <v>2</v>
       </c>
@@ -3053,7 +3185,11 @@
         <v>311</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
       <c r="B51" s="14">
         <v>2</v>
       </c>
@@ -3082,7 +3218,11 @@
         <v>312</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
       <c r="B52" s="14">
         <v>2</v>
       </c>
@@ -3111,7 +3251,11 @@
         <v>313</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
       <c r="B53" s="14">
         <v>2</v>
       </c>
@@ -3140,7 +3284,11 @@
         <v>314</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
       <c r="B54" s="14">
         <v>2</v>
       </c>
@@ -3169,7 +3317,11 @@
         <v>315</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
       <c r="B55" s="14">
         <v>2</v>
       </c>
@@ -3198,7 +3350,11 @@
         <v>316</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
       <c r="B56" s="14">
         <v>2</v>
       </c>
@@ -3227,7 +3383,11 @@
         <v>317</v>
       </c>
     </row>
-    <row r="57" spans="2:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
       <c r="B57" s="14">
         <v>2</v>
       </c>
@@ -3256,7 +3416,11 @@
         <v>318</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
       <c r="B58" s="14">
         <v>2</v>
       </c>
@@ -3285,7 +3449,11 @@
         <v>319</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
       <c r="B59" s="14">
         <v>2</v>
       </c>
@@ -3314,7 +3482,11 @@
         <v>320</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
       <c r="B60" s="14">
         <v>2</v>
       </c>
@@ -3343,7 +3515,11 @@
         <v>321</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
       <c r="B61" s="14">
         <v>2</v>
       </c>
@@ -3372,7 +3548,11 @@
         <v>322</v>
       </c>
     </row>
-    <row r="62" spans="2:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
       <c r="B62" s="14">
         <v>2</v>
       </c>
@@ -3401,7 +3581,11 @@
         <v>323</v>
       </c>
     </row>
-    <row r="63" spans="2:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
       <c r="B63" s="14">
         <v>2</v>
       </c>
@@ -3430,7 +3614,11 @@
         <v>324</v>
       </c>
     </row>
-    <row r="64" spans="2:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
       <c r="B64" s="14">
         <v>2</v>
       </c>
@@ -3459,7 +3647,11 @@
         <v>325</v>
       </c>
     </row>
-    <row r="65" spans="2:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
       <c r="B65" s="14">
         <v>2</v>
       </c>
@@ -3488,7 +3680,11 @@
         <v>326</v>
       </c>
     </row>
-    <row r="66" spans="2:11" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
       <c r="B66" s="14">
         <v>3</v>
       </c>
@@ -3517,7 +3713,11 @@
         <v>327</v>
       </c>
     </row>
-    <row r="67" spans="2:11" ht="115.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="115.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
       <c r="B67" s="14">
         <v>3</v>
       </c>
@@ -3546,7 +3746,11 @@
         <v>328</v>
       </c>
     </row>
-    <row r="68" spans="2:11" ht="115.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="115.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
       <c r="B68" s="14">
         <v>3</v>
       </c>
@@ -3575,7 +3779,11 @@
         <v>329</v>
       </c>
     </row>
-    <row r="69" spans="2:11" ht="115.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="115.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
       <c r="B69" s="14">
         <v>3</v>
       </c>
@@ -3604,7 +3812,11 @@
         <v>330</v>
       </c>
     </row>
-    <row r="70" spans="2:11" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
       <c r="B70" s="14">
         <v>3</v>
       </c>

--- a/storage/app/utils/Products.xlsx
+++ b/storage/app/utils/Products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Academia San Fernando\storage\app\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A6D234-1921-41B9-9FB4-570D0CFAD274}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586A1A39-3A6A-4912-B3E0-76BB799BD52A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1479,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F46E4A5-8C04-4CB3-B615-83ED9B94ADA8}">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A70"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="56.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2164,7 +2164,6 @@
     </row>
     <row r="20" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <f>A19+1</f>
         <v>19</v>
       </c>
       <c r="B20" s="10">
@@ -2197,7 +2196,6 @@
     </row>
     <row r="21" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <f t="shared" ref="A21:A70" si="0">A20+1</f>
         <v>20</v>
       </c>
       <c r="B21" s="10">
@@ -2230,7 +2228,6 @@
     </row>
     <row r="22" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="10">
@@ -2263,7 +2260,6 @@
     </row>
     <row r="23" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="10">
@@ -2296,7 +2292,6 @@
     </row>
     <row r="24" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="10">
@@ -2329,7 +2324,6 @@
     </row>
     <row r="25" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="10">
@@ -2362,7 +2356,6 @@
     </row>
     <row r="26" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="10">
@@ -2395,7 +2388,6 @@
     </row>
     <row r="27" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="10">
@@ -2428,7 +2420,6 @@
     </row>
     <row r="28" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="10">
@@ -2461,7 +2452,6 @@
     </row>
     <row r="29" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="10">
@@ -2494,7 +2484,6 @@
     </row>
     <row r="30" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="10">
@@ -2527,7 +2516,6 @@
     </row>
     <row r="31" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="10">
@@ -2560,7 +2548,6 @@
     </row>
     <row r="32" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="10">
@@ -2593,7 +2580,6 @@
     </row>
     <row r="33" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="10">
@@ -2626,7 +2612,6 @@
     </row>
     <row r="34" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="10">
@@ -2659,7 +2644,6 @@
     </row>
     <row r="35" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="10">
@@ -2692,7 +2676,6 @@
     </row>
     <row r="36" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" s="10">
@@ -2725,7 +2708,6 @@
     </row>
     <row r="37" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" s="10">
@@ -2758,7 +2740,6 @@
     </row>
     <row r="38" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38" s="10">
@@ -2791,7 +2772,6 @@
     </row>
     <row r="39" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" s="10">
@@ -2824,7 +2804,6 @@
     </row>
     <row r="40" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" s="10">
@@ -2857,7 +2836,6 @@
     </row>
     <row r="41" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" s="14">
@@ -2890,7 +2868,6 @@
     </row>
     <row r="42" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42" s="14">
@@ -2923,7 +2900,6 @@
     </row>
     <row r="43" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43" s="14">
@@ -2956,7 +2932,6 @@
     </row>
     <row r="44" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B44" s="14">
@@ -2989,7 +2964,6 @@
     </row>
     <row r="45" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45" s="14">
@@ -3022,7 +2996,6 @@
     </row>
     <row r="46" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B46" s="14">
@@ -3055,7 +3028,6 @@
     </row>
     <row r="47" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" s="14">
@@ -3088,7 +3060,6 @@
     </row>
     <row r="48" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48" s="14">
@@ -3121,7 +3092,6 @@
     </row>
     <row r="49" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B49" s="14">
@@ -3154,7 +3124,6 @@
     </row>
     <row r="50" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B50" s="14">
@@ -3187,7 +3156,6 @@
     </row>
     <row r="51" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B51" s="14">
@@ -3220,7 +3188,6 @@
     </row>
     <row r="52" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B52" s="14">
@@ -3253,7 +3220,6 @@
     </row>
     <row r="53" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B53" s="14">
@@ -3286,7 +3252,6 @@
     </row>
     <row r="54" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B54" s="14">
@@ -3319,7 +3284,6 @@
     </row>
     <row r="55" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B55" s="14">
@@ -3352,7 +3316,6 @@
     </row>
     <row r="56" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B56" s="14">
@@ -3385,7 +3348,6 @@
     </row>
     <row r="57" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B57" s="14">
@@ -3418,7 +3380,6 @@
     </row>
     <row r="58" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B58" s="14">
@@ -3451,7 +3412,6 @@
     </row>
     <row r="59" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B59" s="14">
@@ -3484,7 +3444,6 @@
     </row>
     <row r="60" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B60" s="14">
@@ -3517,7 +3476,6 @@
     </row>
     <row r="61" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B61" s="14">
@@ -3550,7 +3508,6 @@
     </row>
     <row r="62" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B62" s="14">
@@ -3583,7 +3540,6 @@
     </row>
     <row r="63" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B63" s="14">
@@ -3616,7 +3572,6 @@
     </row>
     <row r="64" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B64" s="14">
@@ -3649,7 +3604,6 @@
     </row>
     <row r="65" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B65" s="14">
@@ -3682,7 +3636,6 @@
     </row>
     <row r="66" spans="1:11" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B66" s="14">
@@ -3715,7 +3668,6 @@
     </row>
     <row r="67" spans="1:11" ht="115.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="B67" s="14">
@@ -3748,7 +3700,6 @@
     </row>
     <row r="68" spans="1:11" ht="115.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="B68" s="14">
@@ -3781,7 +3732,6 @@
     </row>
     <row r="69" spans="1:11" ht="115.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="B69" s="14">
@@ -3814,7 +3764,6 @@
     </row>
     <row r="70" spans="1:11" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="B70" s="14">
